--- a/__repository/test/new_received.xlsx
+++ b/__repository/test/new_received.xlsx
@@ -742,8 +742,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CC10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BG1" workbookViewId="0">
-      <selection activeCell="BT6" sqref="BT6:BY10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1028,7 +1028,7 @@
         <v>84</v>
       </c>
       <c r="K6">
-        <v>4000018713</v>
+        <v>20160001</v>
       </c>
       <c r="M6" t="s">
         <v>84</v>
@@ -1231,7 +1231,7 @@
         <v>84</v>
       </c>
       <c r="K7">
-        <v>4000018713</v>
+        <v>20160002</v>
       </c>
       <c r="M7" t="s">
         <v>84</v>
@@ -1434,7 +1434,7 @@
         <v>84</v>
       </c>
       <c r="K8">
-        <v>4000018713</v>
+        <v>20160002</v>
       </c>
       <c r="M8" t="s">
         <v>84</v>
@@ -1637,7 +1637,7 @@
         <v>84</v>
       </c>
       <c r="K9">
-        <v>4000018713</v>
+        <v>20160004</v>
       </c>
       <c r="M9" t="s">
         <v>84</v>
@@ -1840,7 +1840,7 @@
         <v>84</v>
       </c>
       <c r="K10">
-        <v>4000018713</v>
+        <v>20160005</v>
       </c>
       <c r="M10" t="s">
         <v>84</v>

--- a/__repository/test/new_received.xlsx
+++ b/__repository/test/new_received.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="91">
   <si>
     <t>ID</t>
   </si>
@@ -743,7 +743,7 @@
   <dimension ref="A1:CC10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1033,8 +1033,8 @@
       <c r="M6" t="s">
         <v>84</v>
       </c>
-      <c r="N6" t="s">
-        <v>84</v>
+      <c r="N6">
+        <v>1234</v>
       </c>
       <c r="O6" t="s">
         <v>84</v>
@@ -1184,7 +1184,7 @@
         <v>84</v>
       </c>
       <c r="BN6">
-        <v>26</v>
+        <v>58585858</v>
       </c>
       <c r="BO6">
         <v>35</v>
@@ -1236,8 +1236,8 @@
       <c r="M7" t="s">
         <v>84</v>
       </c>
-      <c r="N7" t="s">
-        <v>84</v>
+      <c r="N7">
+        <v>12345</v>
       </c>
       <c r="O7" t="s">
         <v>84</v>
@@ -1387,7 +1387,7 @@
         <v>84</v>
       </c>
       <c r="BN7">
-        <v>26</v>
+        <v>58585858</v>
       </c>
       <c r="BO7">
         <v>35</v>
@@ -1439,8 +1439,8 @@
       <c r="M8" t="s">
         <v>84</v>
       </c>
-      <c r="N8" t="s">
-        <v>84</v>
+      <c r="N8">
+        <v>1234</v>
       </c>
       <c r="O8" t="s">
         <v>84</v>
@@ -1590,7 +1590,7 @@
         <v>84</v>
       </c>
       <c r="BN8">
-        <v>26</v>
+        <v>58585858</v>
       </c>
       <c r="BO8">
         <v>35</v>
@@ -1642,8 +1642,8 @@
       <c r="M9" t="s">
         <v>84</v>
       </c>
-      <c r="N9" t="s">
-        <v>84</v>
+      <c r="N9">
+        <v>213</v>
       </c>
       <c r="O9" t="s">
         <v>84</v>
@@ -1793,7 +1793,7 @@
         <v>84</v>
       </c>
       <c r="BN9">
-        <v>26</v>
+        <v>58585858</v>
       </c>
       <c r="BO9">
         <v>35</v>
@@ -1845,8 +1845,8 @@
       <c r="M10" t="s">
         <v>84</v>
       </c>
-      <c r="N10" t="s">
-        <v>84</v>
+      <c r="N10">
+        <v>143</v>
       </c>
       <c r="O10" t="s">
         <v>84</v>
@@ -1996,7 +1996,7 @@
         <v>84</v>
       </c>
       <c r="BN10">
-        <v>26</v>
+        <v>58585858</v>
       </c>
       <c r="BO10">
         <v>35</v>
